--- a/BOMs/GNSS_MB.xlsx
+++ b/BOMs/GNSS_MB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\GNSS_Workshop\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D85FEF-F4D2-4D06-BAA2-2E6BC75EB5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBFF1ED-AD10-4632-A73E-F397A0090FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2B53164-4E5B-4516-835B-8C358EC9BD43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D3C992D-13F1-4F65-8AD5-0EBEEE8519EE}"/>
   </bookViews>
   <sheets>
     <sheet name="GNSS_MB" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>Comment</t>
   </si>
@@ -101,6 +101,9 @@
     <t>0402_CAP</t>
   </si>
   <si>
+    <t>Not Fitted</t>
+  </si>
+  <si>
     <t>GRM188R61A105KA61D</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
     <t>J2, J4, J5</t>
   </si>
   <si>
-    <t>Fitted, Not Fitted</t>
-  </si>
-  <si>
     <t>CON-SMA-EDGE-S</t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>Chip Resistor, 0 Ohm, +/- 5%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
   </si>
   <si>
-    <t>R1, R5, R7, R10, R11, R12, R13</t>
+    <t>R1, R5, R7</t>
   </si>
   <si>
     <t>RC0603FR-0710KL</t>
@@ -224,6 +224,24 @@
     <t>R4, R8</t>
   </si>
   <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>R10, R11, R13</t>
+  </si>
+  <si>
+    <t>RC0603JR-072KL</t>
+  </si>
+  <si>
+    <t>2 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
     <t>TEST_POINT</t>
   </si>
   <si>
@@ -231,9 +249,6 @@
   </si>
   <si>
     <t>TP1, TP2, TP3, TP4</t>
-  </si>
-  <si>
-    <t>Not Fitted</t>
   </si>
   <si>
     <t>FT230XS-R</t>
@@ -656,8 +671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B685B0-D5A5-4EEE-A6CF-C197A96A2280}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE088E9-387F-4356-83B2-EDBA6ECE153E}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -761,21 +776,21 @@
         <v>19</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -789,16 +804,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -809,16 +824,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -829,16 +844,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -849,22 +864,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -881,10 +896,10 @@
         <v>41</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -941,7 +956,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>5</v>
@@ -1018,27 +1033,27 @@
         <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1049,19 +1064,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>5</v>
@@ -1069,21 +1084,61 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/BOMs/GNSS_MB.xlsx
+++ b/BOMs/GNSS_MB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\GNSS_Workshop\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBFF1ED-AD10-4632-A73E-F397A0090FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA65F9E6-4103-4DFF-B2ED-E524C0585CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D3C992D-13F1-4F65-8AD5-0EBEEE8519EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6C6DDBE-C3E3-4EE8-96E3-82A07EB9773D}"/>
   </bookViews>
   <sheets>
     <sheet name="GNSS_MB" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>Comment</t>
   </si>
@@ -101,154 +101,157 @@
     <t>0402_CAP</t>
   </si>
   <si>
+    <t>GRM188R61A105KA61D</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>C10, C11</t>
+  </si>
+  <si>
+    <t>Red, 2V, 140°</t>
+  </si>
+  <si>
+    <t>WL-SMCW Mono-color Chip LED Waterclear, SMT, size 0603, Red, 2V, 140°</t>
+  </si>
+  <si>
+    <t>D1, D4</t>
+  </si>
+  <si>
+    <t>WL-SMCW</t>
+  </si>
+  <si>
+    <t>Green, 3.2V, 140°</t>
+  </si>
+  <si>
+    <t>WL-SMCW Mono-color Chip LED Waterclear, SMT, size 0603, Green, 3.2V, 140°</t>
+  </si>
+  <si>
+    <t>D2, D3</t>
+  </si>
+  <si>
+    <t>GSB1C211110DS1HR</t>
+  </si>
+  <si>
+    <t>USB2.0, Type C, Top mount, Center Height 1.78mm, Dual Row DIP</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>AMPHENOL_GSB1C211110DS1HR</t>
+  </si>
+  <si>
+    <t>61300211121</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 2POS 2.54MM</t>
+  </si>
+  <si>
+    <t>J2, J4, J5</t>
+  </si>
+  <si>
+    <t>Fitted, Not Fitted</t>
+  </si>
+  <si>
+    <t>CON-SMA-EDGE-S</t>
+  </si>
+  <si>
+    <t>CONN SMA JACK STR EDGE MNT</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>RFSOLUTIONS_CON-SMA-EDGE-S</t>
+  </si>
+  <si>
+    <t>LQW15AN20NG8ZD</t>
+  </si>
+  <si>
+    <t>FIXED IND 20NH 800MA 0.186OHM SM</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>INDC1006X60N</t>
+  </si>
+  <si>
+    <t>36900000</t>
+  </si>
+  <si>
+    <t>WE-SHC Shielding Cabinet, Clip, Tin Plated, Tape and Reel, 6.5x0.8x1.27mm</t>
+  </si>
+  <si>
+    <t>MP1, MP2, MP3, MP4</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>Chip Resistor, 0 Ohm, +/- 5%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>R1, R5, R7</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R2, R9</t>
+  </si>
+  <si>
+    <t>RC0603FR-0727RL</t>
+  </si>
+  <si>
+    <t>RES 27 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R3, R6</t>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>RES 5.1K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R4, R8</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>R10, R11, R13</t>
+  </si>
+  <si>
+    <t>RC0603JR-072KL</t>
+  </si>
+  <si>
+    <t>2 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>TEST_POINT</t>
+  </si>
+  <si>
+    <t>TEST POINT 2MM</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4</t>
+  </si>
+  <si>
     <t>Not Fitted</t>
-  </si>
-  <si>
-    <t>GRM188R61A105KA61D</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 10V X5R 0603</t>
-  </si>
-  <si>
-    <t>C10, C11</t>
-  </si>
-  <si>
-    <t>Red, 2V, 140°</t>
-  </si>
-  <si>
-    <t>WL-SMCW Mono-color Chip LED Waterclear, SMT, size 0603, Red, 2V, 140°</t>
-  </si>
-  <si>
-    <t>D1, D4</t>
-  </si>
-  <si>
-    <t>WL-SMCW</t>
-  </si>
-  <si>
-    <t>Green, 3.2V, 140°</t>
-  </si>
-  <si>
-    <t>WL-SMCW Mono-color Chip LED Waterclear, SMT, size 0603, Green, 3.2V, 140°</t>
-  </si>
-  <si>
-    <t>D2, D3</t>
-  </si>
-  <si>
-    <t>GSB1C211110DS1HR</t>
-  </si>
-  <si>
-    <t>USB2.0, Type C, Top mount, Center Height 1.78mm, Dual Row DIP</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>AMPHENOL_GSB1C211110DS1HR</t>
-  </si>
-  <si>
-    <t>61300211121</t>
-  </si>
-  <si>
-    <t>CONN HEADER VERT 2POS 2.54MM</t>
-  </si>
-  <si>
-    <t>J2, J4, J5</t>
-  </si>
-  <si>
-    <t>CON-SMA-EDGE-S</t>
-  </si>
-  <si>
-    <t>CONN SMA JACK STR EDGE MNT</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>RFSOLUTIONS_CON-SMA-EDGE-S</t>
-  </si>
-  <si>
-    <t>LQW15AN20NG8ZD</t>
-  </si>
-  <si>
-    <t>FIXED IND 20NH 800MA 0.186OHM SM</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>INDC1006X60N</t>
-  </si>
-  <si>
-    <t>36900000</t>
-  </si>
-  <si>
-    <t>WE-SHC Shielding Cabinet, Clip, Tin Plated, Tape and Reel, 6.5x0.8x1.27mm</t>
-  </si>
-  <si>
-    <t>MP1, MP2, MP3, MP4</t>
-  </si>
-  <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
-    <t>Chip Resistor, 0 Ohm, +/- 5%, 0.1 W, -55 to 155 degC, 0603 (1608 Metric), RoHS, Tape and Reel</t>
-  </si>
-  <si>
-    <t>R1, R5, R7</t>
-  </si>
-  <si>
-    <t>RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t>RES 10K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R2, R9</t>
-  </si>
-  <si>
-    <t>RC0603FR-0727RL</t>
-  </si>
-  <si>
-    <t>RES 27 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R3, R6</t>
-  </si>
-  <si>
-    <t>RC0603FR-075K1L</t>
-  </si>
-  <si>
-    <t>RES 5.1K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R4, R8</t>
-  </si>
-  <si>
-    <t>RC0603FR-071KL</t>
-  </si>
-  <si>
-    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
-  </si>
-  <si>
-    <t>R10, R11, R13</t>
-  </si>
-  <si>
-    <t>RC0603JR-072KL</t>
-  </si>
-  <si>
-    <t>2 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>TEST_POINT</t>
-  </si>
-  <si>
-    <t>TEST POINT 2MM</t>
-  </si>
-  <si>
-    <t>TP1, TP2, TP3, TP4</t>
   </si>
   <si>
     <t>FT230XS-R</t>
@@ -671,7 +674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE088E9-387F-4356-83B2-EDBA6ECE153E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0823A314-7E59-4ECD-8D37-DC9A83D4B693}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -776,21 +779,21 @@
         <v>19</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
@@ -804,16 +807,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -824,16 +827,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -844,16 +847,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -864,22 +867,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -896,10 +899,10 @@
         <v>41</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1076,24 +1079,24 @@
         <v>67</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1104,16 +1107,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1124,16 +1127,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
